--- a/Assets/Excel/rythmBeatNormalSet_Take_Off_Into_the_Sky.xlsx
+++ b/Assets/Excel/rythmBeatNormalSet_Take_Off_Into_the_Sky.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Work\VSei\VseiTaihen\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C075E4-B72F-4EBE-BBCF-68E39639CF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977DA9A-1A8F-4759-B738-B556D678E489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2970" windowWidth="28800" windowHeight="15345" xr2:uid="{8A165E50-3997-4761-88A2-C6F9E98E6625}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8A165E50-3997-4761-88A2-C6F9E98E6625}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -422,7 +422,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -791,164 +791,332 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>2</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>

--- a/Assets/Excel/rythmBeatNormalSet_Take_Off_Into_the_Sky.xlsx
+++ b/Assets/Excel/rythmBeatNormalSet_Take_Off_Into_the_Sky.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Work\VSei\VseiTaihen\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C977DA9A-1A8F-4759-B738-B556D678E489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A801D370-E779-4522-B125-23176AB8C3ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{8A165E50-3997-4761-88A2-C6F9E98E6625}"/>
   </bookViews>
@@ -62,7 +62,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -75,6 +75,14 @@
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
@@ -101,8 +109,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +433,7 @@
   <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -449,16 +460,16 @@
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
         <v>0</v>
       </c>
     </row>
@@ -467,16 +478,16 @@
         <f t="shared" ref="A3:A66" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -485,16 +496,16 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
@@ -503,16 +514,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -521,16 +532,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
     </row>
@@ -539,16 +550,16 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -557,16 +568,16 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
         <v>0</v>
       </c>
     </row>
@@ -575,16 +586,16 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -593,16 +604,16 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
         <v>0</v>
       </c>
     </row>
@@ -611,16 +622,16 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -629,16 +640,16 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="1">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
         <v>0</v>
       </c>
     </row>
@@ -647,16 +658,16 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
         <v>1</v>
       </c>
     </row>
@@ -665,16 +676,16 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="1">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
         <v>1</v>
       </c>
     </row>
@@ -683,16 +694,16 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
         <v>0</v>
       </c>
     </row>
@@ -701,16 +712,16 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
         <v>0</v>
       </c>
     </row>
@@ -719,16 +730,16 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
         <v>1</v>
       </c>
     </row>
@@ -737,16 +748,16 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="1">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
         <v>0</v>
       </c>
     </row>
@@ -755,16 +766,16 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
         <v>0</v>
       </c>
     </row>
@@ -773,16 +784,16 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -791,16 +802,16 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
         <v>0</v>
       </c>
     </row>
@@ -809,16 +820,16 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22">
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
         <v>0</v>
       </c>
     </row>
@@ -827,16 +838,16 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
         <v>2</v>
       </c>
     </row>
@@ -845,16 +856,16 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-      <c r="E24">
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
         <v>0</v>
       </c>
     </row>
@@ -863,16 +874,16 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
         <v>0</v>
       </c>
     </row>
@@ -881,16 +892,16 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
         <v>0</v>
       </c>
     </row>
@@ -899,16 +910,16 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>2</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
         <v>0</v>
       </c>
     </row>
@@ -917,16 +928,16 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
         <v>0</v>
       </c>
     </row>
@@ -935,16 +946,16 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29">
+      <c r="B29" s="1">
+        <v>0</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
         <v>0</v>
       </c>
     </row>
@@ -953,16 +964,16 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>2</v>
-      </c>
-      <c r="E30">
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1">
         <v>0</v>
       </c>
     </row>
@@ -971,16 +982,16 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
         <v>0</v>
       </c>
     </row>
@@ -989,16 +1000,16 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1007,16 +1018,16 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1025,16 +1036,16 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>2</v>
-      </c>
-      <c r="E34">
+      <c r="B34" s="1">
+        <v>0</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1043,695 +1054,2087 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
+      <c r="B38" s="1">
+        <v>0</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
+      <c r="B40" s="1">
+        <v>0</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
+      <c r="B46" s="1">
+        <v>0</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
+      <c r="B47" s="1">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>1</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
+        <v>1</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
+        <v>0</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
+        <v>0</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>1</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B59" s="1">
+        <v>1</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>2</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1">
+        <v>0</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B62" s="1">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B63" s="1">
+        <v>0</v>
+      </c>
+      <c r="C63" s="1">
+        <v>2</v>
+      </c>
+      <c r="D63" s="1">
+        <v>0</v>
+      </c>
+      <c r="E63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B64" s="1">
+        <v>0</v>
+      </c>
+      <c r="C64" s="1">
+        <v>0</v>
+      </c>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>2</v>
+      </c>
+      <c r="D65" s="1">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>0</v>
+      </c>
+      <c r="D66" s="1">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <f t="shared" ref="A67:A114" si="1">ROW()-1</f>
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>0</v>
+      </c>
+      <c r="D67" s="1">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <f t="shared" si="1"/>
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>2</v>
+      </c>
+      <c r="D68" s="1">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <f t="shared" si="1"/>
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B69" s="1">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1">
+        <v>0</v>
+      </c>
+      <c r="D69" s="1">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <f t="shared" si="1"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1">
+        <v>2</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>0</v>
+      </c>
+      <c r="D71" s="1">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <f t="shared" si="1"/>
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B72" s="1">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1">
+        <v>0</v>
+      </c>
+      <c r="D72" s="1">
+        <v>0</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>2</v>
+      </c>
+      <c r="D73" s="1">
+        <v>0</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <f t="shared" si="1"/>
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B75" s="1">
+        <v>0</v>
+      </c>
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>0</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B77" s="1">
+        <v>1</v>
+      </c>
+      <c r="C77" s="1">
+        <v>0</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <f t="shared" si="1"/>
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>1</v>
+      </c>
+      <c r="E78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <f t="shared" si="1"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B79" s="1">
+        <v>0</v>
+      </c>
+      <c r="C79" s="1">
+        <v>1</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <f t="shared" si="1"/>
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>0</v>
+      </c>
+      <c r="D80" s="1">
+        <v>0</v>
+      </c>
+      <c r="E80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1">
+        <v>0</v>
+      </c>
+      <c r="E81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <f t="shared" si="1"/>
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1">
+        <v>0</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <f t="shared" si="1"/>
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>1</v>
+      </c>
+      <c r="E83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <f t="shared" si="1"/>
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <f t="shared" si="1"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>1</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <f t="shared" si="1"/>
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B88" s="1">
+        <v>1</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>0</v>
+      </c>
+      <c r="E89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <f t="shared" si="1"/>
         <v>89</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B90" s="1">
+        <v>0</v>
+      </c>
+      <c r="C90" s="1">
+        <v>1</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B91" s="1">
+        <v>0</v>
+      </c>
+      <c r="C91" s="1">
+        <v>0</v>
+      </c>
+      <c r="D91" s="1">
+        <v>1</v>
+      </c>
+      <c r="E91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <f t="shared" si="1"/>
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B92" s="1">
+        <v>1</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <f t="shared" si="1"/>
         <v>92</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B93" s="1">
+        <v>0</v>
+      </c>
+      <c r="C93" s="1">
+        <v>0</v>
+      </c>
+      <c r="D93" s="1">
+        <v>0</v>
+      </c>
+      <c r="E93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <f t="shared" si="1"/>
         <v>93</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B94" s="1">
+        <v>0</v>
+      </c>
+      <c r="C94" s="1">
+        <v>1</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <f t="shared" si="1"/>
         <v>94</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B95" s="1">
+        <v>0</v>
+      </c>
+      <c r="C95" s="1">
+        <v>0</v>
+      </c>
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="1">
+        <v>0</v>
+      </c>
+      <c r="C96" s="1">
+        <v>0</v>
+      </c>
+      <c r="D96" s="1">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="1">
+        <v>1</v>
+      </c>
+      <c r="C97" s="1">
+        <v>0</v>
+      </c>
+      <c r="D97" s="1">
+        <v>0</v>
+      </c>
+      <c r="E97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <f t="shared" si="1"/>
         <v>97</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B98" s="1">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>0</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <f t="shared" si="1"/>
         <v>98</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B99" s="1">
+        <v>0</v>
+      </c>
+      <c r="C99" s="1">
+        <v>1</v>
+      </c>
+      <c r="D99" s="1">
+        <v>0</v>
+      </c>
+      <c r="E99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <f t="shared" si="1"/>
         <v>99</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B100" s="1">
+        <v>0</v>
+      </c>
+      <c r="C100" s="1">
+        <v>0</v>
+      </c>
+      <c r="D100" s="1">
+        <v>0</v>
+      </c>
+      <c r="E100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B101" s="1">
+        <v>0</v>
+      </c>
+      <c r="C101" s="1">
+        <v>1</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <f t="shared" si="1"/>
         <v>101</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B102" s="1">
+        <v>0</v>
+      </c>
+      <c r="C102" s="1">
+        <v>0</v>
+      </c>
+      <c r="D102" s="1">
+        <v>1</v>
+      </c>
+      <c r="E102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <f t="shared" si="1"/>
         <v>102</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1">
+        <v>0</v>
+      </c>
+      <c r="E103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <f t="shared" si="1"/>
         <v>103</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B104" s="1">
+        <v>0</v>
+      </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <f t="shared" si="1"/>
         <v>104</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B105" s="1">
+        <v>0</v>
+      </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
+      <c r="E105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B106" s="1">
+        <v>0</v>
+      </c>
+      <c r="C106" s="1">
+        <v>1</v>
+      </c>
+      <c r="D106" s="1">
+        <v>0</v>
+      </c>
+      <c r="E106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <f t="shared" si="1"/>
         <v>106</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B107" s="1">
+        <v>0</v>
+      </c>
+      <c r="C107" s="1">
+        <v>1</v>
+      </c>
+      <c r="D107" s="1">
+        <v>0</v>
+      </c>
+      <c r="E107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <f t="shared" si="1"/>
         <v>107</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B108" s="1">
+        <v>0</v>
+      </c>
+      <c r="C108" s="1">
+        <v>0</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
+      <c r="E108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <f t="shared" si="1"/>
         <v>108</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B109" s="1">
+        <v>0</v>
+      </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
+      <c r="E109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <f t="shared" si="1"/>
         <v>109</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B110" s="1">
+        <v>0</v>
+      </c>
+      <c r="C110" s="1">
+        <v>1</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
+      <c r="E110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B111" s="1">
+        <v>0</v>
+      </c>
+      <c r="C111" s="1">
+        <v>0</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
+      <c r="E111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <f t="shared" si="1"/>
         <v>111</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B112" s="1">
+        <v>0</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1</v>
+      </c>
+      <c r="D112" s="1">
+        <v>0</v>
+      </c>
+      <c r="E112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <f t="shared" si="1"/>
         <v>112</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="1">
+        <v>0</v>
+      </c>
+      <c r="C113" s="1">
+        <v>0</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
+      <c r="E113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <f t="shared" si="1"/>
         <v>113</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="1">
+        <v>0</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1</v>
+      </c>
+      <c r="D114" s="1">
+        <v>0</v>
+      </c>
+      <c r="E114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <f>ROW()-1</f>
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B115" s="1">
+        <v>1</v>
+      </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>0</v>
+      </c>
+      <c r="E115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <f>ROW()-1</f>
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B116" s="1">
+        <v>0</v>
+      </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>0</v>
+      </c>
+      <c r="E116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <f t="shared" ref="A117:A150" si="2">ROW()-1</f>
         <v>116</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B117" s="1">
+        <v>1</v>
+      </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>0</v>
+      </c>
+      <c r="E117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B118" s="1">
+        <v>0</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1">
+        <v>0</v>
+      </c>
+      <c r="E118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B119" s="1">
+        <v>0</v>
+      </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
+      <c r="E119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B120" s="1">
+        <v>0</v>
+      </c>
+      <c r="C120" s="1">
+        <v>2</v>
+      </c>
+      <c r="D120" s="1">
+        <v>0</v>
+      </c>
+      <c r="E120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B121" s="1">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <f t="shared" si="2"/>
         <v>121</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B122" s="1">
+        <v>0</v>
+      </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>2</v>
+      </c>
+      <c r="E122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <f t="shared" si="2"/>
         <v>122</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B123" s="1">
+        <v>0</v>
+      </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
+      <c r="E123" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <f t="shared" si="2"/>
         <v>123</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B124" s="1">
+        <v>0</v>
+      </c>
+      <c r="C124" s="1">
+        <v>2</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
+      <c r="E124" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <f t="shared" si="2"/>
         <v>124</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B125" s="1">
+        <v>0</v>
+      </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>2</v>
+      </c>
+      <c r="E125" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <f t="shared" si="2"/>
         <v>125</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B126" s="1">
+        <v>0</v>
+      </c>
+      <c r="C126" s="1">
+        <v>2</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B127" s="1">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <f t="shared" si="2"/>
         <v>127</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B128" s="1">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <f t="shared" si="2"/>
         <v>128</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B129" s="1">
+        <v>0</v>
+      </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <f t="shared" si="2"/>
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B130" s="1">
+        <v>0</v>
+      </c>
+      <c r="C130" s="1">
+        <v>2</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
+      <c r="E130" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <f t="shared" si="2"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B131" s="1">
+        <v>2</v>
+      </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
+      <c r="E131" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <f t="shared" si="2"/>
         <v>131</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B132" s="1">
+        <v>0</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1</v>
+      </c>
+      <c r="D132" s="1">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B133" s="1">
+        <v>0</v>
+      </c>
+      <c r="C133" s="1">
+        <v>0</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
+      <c r="E133" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <f t="shared" si="2"/>
         <v>133</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B134" s="1">
+        <v>1</v>
+      </c>
+      <c r="C134" s="1">
+        <v>0</v>
+      </c>
+      <c r="D134" s="1">
+        <v>0</v>
+      </c>
+      <c r="E134" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <f t="shared" si="2"/>
         <v>134</v>
       </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B135" s="1">
+        <v>0</v>
+      </c>
+      <c r="C135" s="1">
+        <v>1</v>
+      </c>
+      <c r="D135" s="1">
+        <v>0</v>
+      </c>
+      <c r="E135" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <f t="shared" si="2"/>
         <v>135</v>
       </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B136" s="1">
+        <v>0</v>
+      </c>
+      <c r="C136" s="1">
+        <v>1</v>
+      </c>
+      <c r="D136" s="1">
+        <v>0</v>
+      </c>
+      <c r="E136" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B137" s="1">
+        <v>0</v>
+      </c>
+      <c r="C137" s="1">
+        <v>0</v>
+      </c>
+      <c r="D137" s="1">
+        <v>0</v>
+      </c>
+      <c r="E137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <f t="shared" si="2"/>
         <v>137</v>
       </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B138" s="1">
+        <v>0</v>
+      </c>
+      <c r="C138" s="1">
+        <v>0</v>
+      </c>
+      <c r="D138" s="1">
+        <v>1</v>
+      </c>
+      <c r="E138" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <f t="shared" si="2"/>
         <v>138</v>
       </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B139" s="1">
+        <v>1</v>
+      </c>
+      <c r="C139" s="1">
+        <v>0</v>
+      </c>
+      <c r="D139" s="1">
+        <v>0</v>
+      </c>
+      <c r="E139" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <f t="shared" si="2"/>
         <v>139</v>
       </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B140" s="1">
+        <v>1</v>
+      </c>
+      <c r="C140" s="1">
+        <v>0</v>
+      </c>
+      <c r="D140" s="1">
+        <v>0</v>
+      </c>
+      <c r="E140" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <f t="shared" si="2"/>
         <v>140</v>
       </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B141" s="1">
+        <v>0</v>
+      </c>
+      <c r="C141" s="1">
+        <v>0</v>
+      </c>
+      <c r="D141" s="1">
+        <v>1</v>
+      </c>
+      <c r="E141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <f t="shared" si="2"/>
         <v>141</v>
       </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B142" s="1">
+        <v>0</v>
+      </c>
+      <c r="C142" s="1">
+        <v>0</v>
+      </c>
+      <c r="D142" s="1">
+        <v>0</v>
+      </c>
+      <c r="E142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B143" s="1">
+        <v>0</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1</v>
+      </c>
+      <c r="D143" s="1">
+        <v>0</v>
+      </c>
+      <c r="E143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <f t="shared" si="2"/>
         <v>143</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144" s="1">
+        <v>0</v>
+      </c>
+      <c r="C144" s="1">
+        <v>0</v>
+      </c>
+      <c r="D144" s="1">
+        <v>1</v>
+      </c>
+      <c r="E144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145" s="1">
+        <v>1</v>
+      </c>
+      <c r="C145" s="1">
+        <v>0</v>
+      </c>
+      <c r="D145" s="1">
+        <v>0</v>
+      </c>
+      <c r="E145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <f t="shared" si="2"/>
         <v>145</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146" s="1">
+        <v>0</v>
+      </c>
+      <c r="C146" s="1">
+        <v>1</v>
+      </c>
+      <c r="D146" s="1">
+        <v>0</v>
+      </c>
+      <c r="E146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <f t="shared" si="2"/>
         <v>146</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147" s="1">
+        <v>0</v>
+      </c>
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1">
+        <v>0</v>
+      </c>
+      <c r="E147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <f t="shared" si="2"/>
         <v>147</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148" s="1">
+        <v>0</v>
+      </c>
+      <c r="C148" s="1">
+        <v>0</v>
+      </c>
+      <c r="D148" s="1">
+        <v>0</v>
+      </c>
+      <c r="E148" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <f t="shared" si="2"/>
         <v>148</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149" s="1">
+        <v>0</v>
+      </c>
+      <c r="C149" s="1">
+        <v>0</v>
+      </c>
+      <c r="D149" s="1">
+        <v>1</v>
+      </c>
+      <c r="E149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <f t="shared" si="2"/>
         <v>149</v>
+      </c>
+      <c r="B150" s="1">
+        <v>1</v>
+      </c>
+      <c r="C150" s="1">
+        <v>0</v>
+      </c>
+      <c r="D150" s="1">
+        <v>0</v>
+      </c>
+      <c r="E150" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
